--- a/LibraryProject/메뉴 구조도.xlsx
+++ b/LibraryProject/메뉴 구조도.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\01.Basic\LibraryProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A27E1-DE27-4027-8E95-A73A0F8AA32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA35510-702E-425A-9148-996BA1ADED7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="900" windowWidth="14292" windowHeight="10620" xr2:uid="{6DB7B40E-1299-4D67-9E52-1E95958460F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6DB7B40E-1299-4D67-9E52-1E95958460F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="서브 메뉴" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="데이터" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="164">
   <si>
     <t>회원탈퇴</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,14 +135,6 @@
   </si>
   <si>
     <t>대여 DB 'STATUS'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연체날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연체조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -285,13 +278,360 @@
   <si>
     <t>B_SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연체날짜 -&gt; 대여기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책연체조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 연체조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 연체조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booklist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록번호</t>
+  </si>
+  <si>
+    <t>배가상태</t>
+  </si>
+  <si>
+    <t>청구기호</t>
+  </si>
+  <si>
+    <t>자료실명</t>
+  </si>
+  <si>
+    <t>서명</t>
+  </si>
+  <si>
+    <t>저작자</t>
+  </si>
+  <si>
+    <t>발행자</t>
+  </si>
+  <si>
+    <t>발행년</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서등록번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙리스트여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이달의 독서왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납날짜 이번달로 해서 count()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 이번달 신작리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booklist 입고일자로 나열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 월별 입고 추이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>booklist 입고일자로 count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.대여기간 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 평균 대여기간, 상위 10% 대여기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 안동시 베스트셀러 순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status에서 대여날짜 기준 count해서 순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 도서관 소장 데이터 집계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총도서수, 발행년도별 도서수, 도서 평균 가격, 연도별 도서평균 가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이달의 독서왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번달 신작리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 입고추이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체평균 대여기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 10% 대여기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트셀러 순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총도서수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발행년도별 도서수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서평균가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도별 도서평균 가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM0000000010</t>
+  </si>
+  <si>
+    <t>종의 기원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM0000000014</t>
+  </si>
+  <si>
+    <t>지대넓얇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM0000000093</t>
+  </si>
+  <si>
+    <t>보통의 존재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM0000000226</t>
+  </si>
+  <si>
+    <t>뭘 해도 되는 사람 : 가능성을 끌어올리는 마법</t>
+  </si>
+  <si>
+    <t>SM0000000251</t>
+  </si>
+  <si>
+    <t>죽고 싶지만 떡볶이는 먹고 싶어 : 백세희 에세이</t>
+  </si>
+  <si>
+    <t>SM0000001403</t>
+  </si>
+  <si>
+    <t>가장 예쁜 생각을 너에게 주고 싶다</t>
+  </si>
+  <si>
+    <t>SM0000000444</t>
+  </si>
+  <si>
+    <t>끌림 : travel notes. 1</t>
+  </si>
+  <si>
+    <t>제목으로 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchBook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjson84</t>
+  </si>
+  <si>
+    <t>nockda</t>
+  </si>
+  <si>
+    <t>dwdoit22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>welrodxv</t>
+  </si>
+  <si>
+    <t>ccckk90</t>
+  </si>
+  <si>
+    <t>sy.kelly.yoo</t>
+  </si>
+  <si>
+    <t>skfdkfkalsrn</t>
+  </si>
+  <si>
+    <t>eunchan159</t>
+  </si>
+  <si>
+    <t>jkj1201</t>
+  </si>
+  <si>
+    <t>fabulousity</t>
+  </si>
+  <si>
+    <t>jmlee5199</t>
+  </si>
+  <si>
+    <t>kyunghyun.k.park</t>
+  </si>
+  <si>
+    <t>SM0000000193</t>
+  </si>
+  <si>
+    <t>SM0000000196</t>
+  </si>
+  <si>
+    <t>SM0000000200</t>
+  </si>
+  <si>
+    <t>SM0000000204</t>
+  </si>
+  <si>
+    <t>SM0000000205</t>
+  </si>
+  <si>
+    <t>SM0000000207</t>
+  </si>
+  <si>
+    <t>SM0000000210</t>
+  </si>
+  <si>
+    <t>SM0000000211</t>
+  </si>
+  <si>
+    <t>SM0000000212</t>
+  </si>
+  <si>
+    <t>SM0000000442</t>
+  </si>
+  <si>
+    <t>SM0000000445</t>
+  </si>
+  <si>
+    <t>SM0000000470</t>
+  </si>
+  <si>
+    <t>SM0000000495</t>
+  </si>
+  <si>
+    <t>SM0000000478</t>
+  </si>
+  <si>
+    <t>SM0000000479</t>
+  </si>
+  <si>
+    <t>SM0000000480</t>
+  </si>
+  <si>
+    <t>SM0000000487</t>
+  </si>
+  <si>
+    <t>SM0000000489</t>
+  </si>
+  <si>
+    <t>SM0000000490</t>
+  </si>
+  <si>
+    <t>SM0000001114</t>
+  </si>
+  <si>
+    <t>SM0000001117</t>
+  </si>
+  <si>
+    <t>SM0000001118</t>
+  </si>
+  <si>
+    <t>SM0000001119</t>
+  </si>
+  <si>
+    <t>SM0000001120</t>
+  </si>
+  <si>
+    <t>SM0000001157</t>
+  </si>
+  <si>
+    <t>SM0000001158</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +655,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +686,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -495,128 +858,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E06556-3D42-42E8-9F54-9C0BF94D8B28}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -946,7 +1378,7 @@
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="2.59765625" customWidth="1"/>
     <col min="5" max="5" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
     <col min="8" max="8" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.796875" customWidth="1"/>
@@ -957,240 +1389,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27"/>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="E2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="30"/>
+      <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="32"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="33"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="34"/>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="32"/>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="33"/>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B10" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="41"/>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="41"/>
+      <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="22"/>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="42"/>
+      <c r="B14" s="10">
         <v>6</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="C14" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="16">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="32"/>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="13">
-        <v>6</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="16">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="10">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="25"/>
-      <c r="B12" s="5">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="26"/>
-      <c r="B13" s="13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1200,287 +1641,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5043C71-37DB-4D69-982D-A003F45FCAB3}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="31"/>
+      <c r="A1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="34"/>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="18" t="s">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="34"/>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="38"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="34"/>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="34"/>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="34"/>
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="34"/>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="38"/>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="32"/>
-      <c r="B4" s="5">
+    <row r="14" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="34"/>
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="34"/>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="34"/>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="34"/>
+      <c r="B17" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="33"/>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="16">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32"/>
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="32"/>
-      <c r="B10" s="10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="33"/>
-      <c r="B11" s="7">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32"/>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="32"/>
-      <c r="B14" s="10">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="5">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="33"/>
-      <c r="B16" s="13">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="C17" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="D17" s="35"/>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="34"/>
+      <c r="B18" s="10">
+        <v>6</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="E22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A7:A12"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1489,15 +1956,775 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DBC290-CA0E-40F7-B51D-63B77D84012D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K25" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K27" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K28" t="s">
+        <v>116</v>
+      </c>
+      <c r="M28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K29" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K30" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K31" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473837BA-F097-4B03-8E3F-2BB05640891B}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="55">
+        <v>44087</v>
+      </c>
+      <c r="E2" s="55">
+        <v>44089</v>
+      </c>
+      <c r="F2">
+        <f>E2-D2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="55">
+        <v>44099</v>
+      </c>
+      <c r="E3" s="55">
+        <v>44109</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="0">E3-D3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="55">
+        <v>44089</v>
+      </c>
+      <c r="E4" s="55">
+        <v>44099</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="55">
+        <v>44089</v>
+      </c>
+      <c r="E5" s="55">
+        <v>44094</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="55">
+        <v>44087</v>
+      </c>
+      <c r="E6" s="55">
+        <v>44089</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="55">
+        <v>44087</v>
+      </c>
+      <c r="E7" s="55">
+        <v>44089</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="55">
+        <v>44099</v>
+      </c>
+      <c r="E8" s="55">
+        <v>44101</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="55">
+        <v>44105</v>
+      </c>
+      <c r="E9" s="55">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="55">
+        <v>44107</v>
+      </c>
+      <c r="E10" s="55">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="55">
+        <v>44111</v>
+      </c>
+      <c r="E11" s="55">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="55">
+        <v>44109</v>
+      </c>
+      <c r="E12" s="55">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="55">
+        <v>44087</v>
+      </c>
+      <c r="E13" s="55">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="55">
+        <v>44099</v>
+      </c>
+      <c r="E14" s="55">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="55">
+        <v>44089</v>
+      </c>
+      <c r="E15" s="55">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="55">
+        <v>44089</v>
+      </c>
+      <c r="E16" s="55">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="55">
+        <v>44087</v>
+      </c>
+      <c r="E17" s="55">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="55">
+        <v>44087</v>
+      </c>
+      <c r="E18" s="55">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="55">
+        <v>44099</v>
+      </c>
+      <c r="E19" s="55">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="55">
+        <v>44105</v>
+      </c>
+      <c r="E20" s="55">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="55">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LibraryProject/메뉴 구조도.xlsx
+++ b/LibraryProject/메뉴 구조도.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\01.Basic\LibraryProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA35510-702E-425A-9148-996BA1ADED7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA20FE7-8366-4D83-8CE2-903CC0FBAC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6DB7B40E-1299-4D67-9E52-1E95958460F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6DB7B40E-1299-4D67-9E52-1E95958460F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="서브 메뉴" sheetId="2" r:id="rId2"/>
-    <sheet name="데이터" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="대출리스트" sheetId="4" r:id="rId3"/>
+    <sheet name="데이터" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="177">
   <si>
     <t>회원탈퇴</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -625,12 +625,67 @@
   </si>
   <si>
     <t>SM0000001158</t>
+  </si>
+  <si>
+    <t>sort of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 통계관련
+(showMenu5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subMenu4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mostReader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>newBook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bestSeller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentalDays</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>countBook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthInput</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookPrice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookYearPrice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM0000002834</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,7 +722,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +750,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,95 +989,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1027,28 +1106,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1368,7 +1453,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1389,22 +1474,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="E2" s="29" t="s">
+      <c r="C2" s="31"/>
+      <c r="E2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="31"/>
       <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
@@ -1413,7 +1498,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="13">
@@ -1428,15 +1513,15 @@
       <c r="F3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -1446,7 +1531,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>59</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1457,7 +1542,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -1478,7 +1563,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="13">
@@ -1501,7 +1586,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1522,7 +1607,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1543,14 +1628,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1558,7 +1643,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="13">
@@ -1570,12 +1655,12 @@
       <c r="H10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="41"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7">
         <v>3</v>
       </c>
@@ -1587,7 +1672,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -1596,7 +1681,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="41"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="7">
         <v>5</v>
       </c>
@@ -1608,7 +1693,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="42"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="10">
         <v>6</v>
       </c>
@@ -1617,11 +1702,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1641,313 +1726,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5043C71-37DB-4D69-982D-A003F45FCAB3}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16"/>
+      <c r="B2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="30">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="2">
+    <row r="4" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="35"/>
+      <c r="B4" s="40">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="35"/>
+      <c r="B5" s="40">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="38"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="39"/>
+      <c r="B6" s="56">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="30">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="E7" s="40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="35"/>
+      <c r="B8" s="40">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
-      <c r="B9" s="2">
+    <row r="9" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="35"/>
+      <c r="B9" s="40">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="7">
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="35"/>
+      <c r="B10" s="58">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="34"/>
-      <c r="B11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="35"/>
+      <c r="B11" s="40">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="38"/>
-      <c r="B12" s="2">
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="39"/>
+      <c r="B12" s="56">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="30">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="E13" s="40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="2">
+    <row r="14" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="35"/>
+      <c r="B14" s="40">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="34"/>
-      <c r="B15" s="7">
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="35"/>
+      <c r="B15" s="58">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="34"/>
-      <c r="B16" s="2">
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="35"/>
+      <c r="B16" s="40">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="34"/>
-      <c r="B17" s="7">
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="35"/>
+      <c r="B17" s="58">
         <v>5</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="10">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="35"/>
+      <c r="B18" s="60">
         <v>6</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="61"/>
+      <c r="D18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="62">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="35"/>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="35"/>
+      <c r="B21" s="10">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="35"/>
+      <c r="B22" s="62">
+        <v>4</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="35"/>
+      <c r="B23" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="35"/>
+      <c r="B24" s="62">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="35"/>
+      <c r="B25" s="7">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="35"/>
+      <c r="B26" s="7">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="35"/>
+      <c r="B27" s="7">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="37" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="37" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="30">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,11 +2216,1500 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473837BA-F097-4B03-8E3F-2BB05640891B}">
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="54">
+        <v>44087</v>
+      </c>
+      <c r="E2" s="54">
+        <v>44089</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="54">
+        <v>44099</v>
+      </c>
+      <c r="E3" s="54">
+        <v>44109</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="54">
+        <v>44089</v>
+      </c>
+      <c r="E4" s="54">
+        <v>44099</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="54">
+        <v>44089</v>
+      </c>
+      <c r="E5" s="54">
+        <v>44094</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="54">
+        <v>44087</v>
+      </c>
+      <c r="E6" s="54">
+        <v>44089</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="54">
+        <v>44087</v>
+      </c>
+      <c r="E7" s="54">
+        <v>44089</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="54">
+        <v>44099</v>
+      </c>
+      <c r="E8" s="54">
+        <v>44101</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="54">
+        <v>44105</v>
+      </c>
+      <c r="E9" s="54">
+        <v>44111</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="54">
+        <v>44107</v>
+      </c>
+      <c r="E10" s="54">
+        <v>44109</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="54">
+        <v>44111</v>
+      </c>
+      <c r="E11" s="54">
+        <v>44113</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="54">
+        <v>44109</v>
+      </c>
+      <c r="E12" s="54">
+        <v>44111</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="54">
+        <v>44087</v>
+      </c>
+      <c r="E13" s="54">
+        <v>44089</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="54">
+        <v>44099</v>
+      </c>
+      <c r="E14" s="54">
+        <v>44109</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="54">
+        <v>44089</v>
+      </c>
+      <c r="E15" s="54">
+        <v>44099</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="54">
+        <v>44089</v>
+      </c>
+      <c r="E16" s="54">
+        <v>44094</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="54">
+        <v>44087</v>
+      </c>
+      <c r="E17" s="54">
+        <v>44089</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="54">
+        <v>44087</v>
+      </c>
+      <c r="E18" s="54">
+        <v>44089</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="54">
+        <v>44099</v>
+      </c>
+      <c r="E19" s="54">
+        <v>44101</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="54">
+        <v>44105</v>
+      </c>
+      <c r="E20" s="54">
+        <v>44111</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="54">
+        <v>44134</v>
+      </c>
+      <c r="E21" s="54">
+        <v>44137</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="54">
+        <v>44135</v>
+      </c>
+      <c r="E22" s="54">
+        <v>44138</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="54">
+        <v>44136</v>
+      </c>
+      <c r="E23" s="54">
+        <v>44139</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="54">
+        <v>44137</v>
+      </c>
+      <c r="E24" s="54">
+        <v>44140</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="54">
+        <v>44138</v>
+      </c>
+      <c r="E25" s="54">
+        <v>44141</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="54">
+        <v>44139</v>
+      </c>
+      <c r="E26" s="54">
+        <v>44142</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="54">
+        <v>44140</v>
+      </c>
+      <c r="E27" s="54">
+        <v>44143</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="54">
+        <v>44141</v>
+      </c>
+      <c r="E28" s="54">
+        <v>44144</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="54">
+        <v>44142</v>
+      </c>
+      <c r="E29" s="54">
+        <v>44145</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="54">
+        <v>44143</v>
+      </c>
+      <c r="E30" s="54">
+        <v>44146</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="54">
+        <v>44144</v>
+      </c>
+      <c r="E31" s="54">
+        <v>44147</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="54">
+        <v>44145</v>
+      </c>
+      <c r="E32" s="54">
+        <v>44148</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="54">
+        <v>44146</v>
+      </c>
+      <c r="E33" s="54">
+        <v>44149</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="54">
+        <v>44147</v>
+      </c>
+      <c r="E34" s="54">
+        <v>44150</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="54">
+        <v>44148</v>
+      </c>
+      <c r="E35" s="54">
+        <v>44151</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="54">
+        <v>44149</v>
+      </c>
+      <c r="E36" s="54">
+        <v>44152</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="54">
+        <v>44150</v>
+      </c>
+      <c r="E37" s="54">
+        <v>44153</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="54">
+        <v>44134</v>
+      </c>
+      <c r="E38" s="54">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="54">
+        <v>44135</v>
+      </c>
+      <c r="E39" s="54">
+        <v>44136</v>
+      </c>
+      <c r="F39" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="54">
+        <v>44136</v>
+      </c>
+      <c r="E40" s="54">
+        <v>44137</v>
+      </c>
+      <c r="F40" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="54">
+        <v>44137</v>
+      </c>
+      <c r="E41" s="54">
+        <v>44138</v>
+      </c>
+      <c r="F41" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="54">
+        <v>44138</v>
+      </c>
+      <c r="E42" s="54">
+        <v>44139</v>
+      </c>
+      <c r="F42" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="54">
+        <v>44139</v>
+      </c>
+      <c r="E43" s="54">
+        <v>44140</v>
+      </c>
+      <c r="F43" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="54">
+        <v>44140</v>
+      </c>
+      <c r="E44" s="54">
+        <v>44141</v>
+      </c>
+      <c r="F44" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="54">
+        <v>44141</v>
+      </c>
+      <c r="E45" s="54">
+        <v>44142</v>
+      </c>
+      <c r="F45" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="54">
+        <v>44142</v>
+      </c>
+      <c r="E46" s="54">
+        <v>44143</v>
+      </c>
+      <c r="F46" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="54">
+        <v>44143</v>
+      </c>
+      <c r="E47" s="54">
+        <v>44144</v>
+      </c>
+      <c r="F47" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="54">
+        <v>44144</v>
+      </c>
+      <c r="E48" s="54">
+        <v>44145</v>
+      </c>
+      <c r="F48" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="54">
+        <v>44145</v>
+      </c>
+      <c r="E49" s="54">
+        <v>44148</v>
+      </c>
+      <c r="F49" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="54">
+        <v>44146</v>
+      </c>
+      <c r="E50" s="54">
+        <v>44149</v>
+      </c>
+      <c r="F50" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="54">
+        <v>44147</v>
+      </c>
+      <c r="E51" s="54">
+        <v>44150</v>
+      </c>
+      <c r="F51" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="54">
+        <v>44148</v>
+      </c>
+      <c r="E52" s="54">
+        <v>44149</v>
+      </c>
+      <c r="F52" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="54">
+        <v>44149</v>
+      </c>
+      <c r="E53" s="54">
+        <v>44155</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="54">
+        <v>44150</v>
+      </c>
+      <c r="E54" s="54">
+        <v>44156</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="54">
+        <v>44151</v>
+      </c>
+      <c r="E55" s="54">
+        <v>44157</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="54">
+        <v>44152</v>
+      </c>
+      <c r="E56" s="54">
+        <v>44158</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="54">
+        <v>44153</v>
+      </c>
+      <c r="E57" s="54">
+        <v>44159</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="54">
+        <v>44154</v>
+      </c>
+      <c r="E58" s="54">
+        <v>44160</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="54">
+        <v>44155</v>
+      </c>
+      <c r="E59" s="54">
+        <v>44161</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="54">
+        <v>44136</v>
+      </c>
+      <c r="E60" s="54">
+        <v>44137</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="54">
+        <v>44137</v>
+      </c>
+      <c r="E61" s="54">
+        <v>44138</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="54">
+        <v>44138</v>
+      </c>
+      <c r="E62" s="54">
+        <v>44139</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="54">
+        <v>44139</v>
+      </c>
+      <c r="E63" s="54">
+        <v>44140</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="54">
+        <v>44140</v>
+      </c>
+      <c r="E64" s="54">
+        <v>44141</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="54">
+        <v>44141</v>
+      </c>
+      <c r="E65" s="54">
+        <v>44144</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="54">
+        <v>44142</v>
+      </c>
+      <c r="E66" s="54">
+        <v>44145</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="54">
+        <v>44143</v>
+      </c>
+      <c r="E67" s="54">
+        <v>44146</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="54">
+        <v>44144</v>
+      </c>
+      <c r="E68" s="54">
+        <v>44147</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="54">
+        <v>44145</v>
+      </c>
+      <c r="E69" s="54">
+        <v>44148</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="54">
+        <v>44146</v>
+      </c>
+      <c r="E70" s="54">
+        <v>44152</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="54">
+        <v>44147</v>
+      </c>
+      <c r="E71" s="54">
+        <v>44153</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="54">
+        <v>44148</v>
+      </c>
+      <c r="E72" s="54">
+        <v>44154</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="54">
+        <v>44149</v>
+      </c>
+      <c r="E73" s="54">
+        <v>44155</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E75" s="54"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E76" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DBC290-CA0E-40F7-B51D-63B77D84012D}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1978,49 +3728,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="23" t="s">
         <v>78</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="22" t="s">
         <v>90</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -2028,29 +3778,29 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -2073,22 +3823,22 @@
       <c r="A7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="23" t="s">
         <v>85</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -2099,30 +3849,38 @@
       <c r="A9" t="s">
         <v>87</v>
       </c>
+      <c r="I9" s="42">
+        <v>1</v>
+      </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>88</v>
       </c>
+      <c r="I10" s="42"/>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>89</v>
       </c>
+      <c r="I11" s="42"/>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>91</v>
       </c>
+      <c r="I12" s="42">
+        <v>2</v>
+      </c>
       <c r="J12" t="s">
         <v>103</v>
       </c>
@@ -2131,6 +3889,7 @@
       <c r="A13" t="s">
         <v>92</v>
       </c>
+      <c r="I13" s="42"/>
       <c r="J13" t="s">
         <v>104</v>
       </c>
@@ -2139,22 +3898,27 @@
       <c r="A14" t="s">
         <v>93</v>
       </c>
+      <c r="I14" s="42">
+        <v>3</v>
+      </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>94</v>
       </c>
+      <c r="I15" s="42"/>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>95</v>
       </c>
+      <c r="I16" s="42"/>
       <c r="J16" t="s">
         <v>107</v>
       </c>
@@ -2163,6 +3927,7 @@
       <c r="A17" t="s">
         <v>96</v>
       </c>
+      <c r="I17" s="42"/>
       <c r="J17" t="s">
         <v>108</v>
       </c>
@@ -2171,6 +3936,7 @@
       <c r="A18" t="s">
         <v>97</v>
       </c>
+      <c r="I18" s="42"/>
       <c r="J18" t="s">
         <v>109</v>
       </c>
@@ -2242,489 +4008,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473837BA-F097-4B03-8E3F-2BB05640891B}">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="55">
-        <v>44087</v>
-      </c>
-      <c r="E2" s="55">
-        <v>44089</v>
-      </c>
-      <c r="F2">
-        <f>E2-D2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="55">
-        <v>44099</v>
-      </c>
-      <c r="E3" s="55">
-        <v>44109</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">E3-D3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="55">
-        <v>44089</v>
-      </c>
-      <c r="E4" s="55">
-        <v>44099</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="55">
-        <v>44089</v>
-      </c>
-      <c r="E5" s="55">
-        <v>44094</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="55">
-        <v>44087</v>
-      </c>
-      <c r="E6" s="55">
-        <v>44089</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="55">
-        <v>44087</v>
-      </c>
-      <c r="E7" s="55">
-        <v>44089</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="55">
-        <v>44099</v>
-      </c>
-      <c r="E8" s="55">
-        <v>44101</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="55">
-        <v>44105</v>
-      </c>
-      <c r="E9" s="55">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="55">
-        <v>44107</v>
-      </c>
-      <c r="E10" s="55">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="55">
-        <v>44111</v>
-      </c>
-      <c r="E11" s="55">
-        <v>44113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="55">
-        <v>44109</v>
-      </c>
-      <c r="E12" s="55">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="55">
-        <v>44087</v>
-      </c>
-      <c r="E13" s="55">
-        <v>44089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="55">
-        <v>44099</v>
-      </c>
-      <c r="E14" s="55">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="55">
-        <v>44089</v>
-      </c>
-      <c r="E15" s="55">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="55">
-        <v>44089</v>
-      </c>
-      <c r="E16" s="55">
-        <v>44094</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="55">
-        <v>44087</v>
-      </c>
-      <c r="E17" s="55">
-        <v>44089</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="55">
-        <v>44087</v>
-      </c>
-      <c r="E18" s="55">
-        <v>44089</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="55">
-        <v>44099</v>
-      </c>
-      <c r="E19" s="55">
-        <v>44101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="55">
-        <v>44105</v>
-      </c>
-      <c r="E20" s="55">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="55">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>